--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail9 Features.xlsx
@@ -2632,7 +2632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,29 +2643,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2686,115 +2684,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2811,72 +2799,66 @@
         <v>3.770427030080622e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.211215105440738</v>
+        <v>2.184260353697943e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.658828660666916</v>
+        <v>5.944275369937133e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.184260353697943e-06</v>
+        <v>0.072441532843369</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.944275369937133e-06</v>
+        <v>0.2490349994781104</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.072441532843369</v>
+        <v>0.06715773441280054</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2490349994781104</v>
+        <v>1.561436820890299</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06715773441280054</v>
+        <v>1.438345784095149</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.468603453756036</v>
+        <v>4.222989145605583</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.438345784095149</v>
+        <v>4.027609344609203e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.222989145605583</v>
+        <v>12819552.93374958</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.027609344609203e-14</v>
+        <v>8.346685625350881e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12819552.93374958</v>
+        <v>6.619010952594912</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.346685625350881e-06</v>
+        <v>0.0001070900510190958</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.619010952594912</v>
+        <v>6.283259692559157</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001070900510190958</v>
+        <v>1.50695949320102</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.283259692559157</v>
+        <v>0.004227845858876464</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.50695949320102</v>
+        <v>3.32786438232982</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004227845858876464</v>
+        <v>0.9481914113946001</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.32786438232982</v>
+        <v>1.848010560600212</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9481914113946001</v>
+        <v>19</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.848010560600212</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2274788211142797</v>
       </c>
     </row>
@@ -2891,72 +2873,66 @@
         <v>3.161975500807616e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.822975744690512</v>
+        <v>1.756936504352242e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.01003961469913</v>
+        <v>5.967442697978498e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.756936504352242e-06</v>
+        <v>0.0614228834215533</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.967442697978498e-06</v>
+        <v>0.2479749855670723</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0614228834215533</v>
+        <v>0.06517747545484701</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2479749855670723</v>
+        <v>1.582649501354884</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06517747545484701</v>
+        <v>1.499101496203688</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.494844054834944</v>
+        <v>4.254363177220349</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.499101496203688</v>
+        <v>2.320232386510142e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.254363177220349</v>
+        <v>22085780.75490827</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.320232386510142e-14</v>
+        <v>4.887933169290923e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>22085780.75490827</v>
+        <v>11.31766924694653</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.887933169290923e-06</v>
+        <v>0.0001099127348150832</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.31766924694653</v>
+        <v>7.5199166098152</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001099127348150832</v>
+        <v>1.388036031111041</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.5199166098152</v>
+        <v>0.006215471268376451</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.388036031111041</v>
+        <v>3.176031418516414</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006215471268376451</v>
+        <v>0.9505294715319267</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.176031418516414</v>
+        <v>1.850686523120276</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9505294715319267</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.850686523120276</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2288711597791574</v>
       </c>
     </row>
@@ -2971,72 +2947,66 @@
         <v>2.736867933988385e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.411596351938955</v>
+        <v>1.450071096631943e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.453915846194176</v>
+        <v>5.983776215824894e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.450071096631943e-06</v>
+        <v>0.04964760293050199</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.983776215824894e-06</v>
+        <v>0.2526436571101451</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04964760293050199</v>
+        <v>0.06623537352996949</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2526436571101451</v>
+        <v>1.62557368471859</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06623537352996949</v>
+        <v>1.768708585543823</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.543792610821622</v>
+        <v>3.909830289648587</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.768708585543823</v>
+        <v>2.018455001708437e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.909830289648587</v>
+        <v>24913519.0723508</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.018455001708437e-14</v>
+        <v>4.385754278806807e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24913519.0723508</v>
+        <v>12.52821578945222</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.385754278806807e-06</v>
+        <v>0.0001118431190335583</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.52821578945222</v>
+        <v>7.77978292388952</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001118431190335583</v>
+        <v>1.291601151010749</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.77978292388952</v>
+        <v>0.006769307278399361</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.291601151010749</v>
+        <v>3.169265650820312</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006769307278399361</v>
+        <v>0.952951518100334</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.169265650820312</v>
+        <v>1.814465357938629</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.952951518100334</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.814465357938629</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2171024500534948</v>
       </c>
     </row>
@@ -3051,72 +3021,66 @@
         <v>2.444534747166238e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.002249926128847</v>
+        <v>1.226370863652531e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.003791855040987</v>
+        <v>5.995083016118764e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.226370863652531e-06</v>
+        <v>0.03776281990987537</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.995083016118764e-06</v>
+        <v>0.2607574345891313</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03776281990987537</v>
+        <v>0.06937741364215935</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2607574345891313</v>
+        <v>1.643731206292157</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06937741364215935</v>
+        <v>1.634764150919034</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.566821710943213</v>
+        <v>3.911502212064907</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.634764150919034</v>
+        <v>2.01672984408653e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.911502212064907</v>
+        <v>25164339.42963941</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.01672984408653e-14</v>
+        <v>4.379343498778017e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25164339.42963941</v>
+        <v>12.77082030896444</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.379343498778017e-06</v>
+        <v>0.0001137546830793686</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.77082030896444</v>
+        <v>8.159079386410648</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001137546830793686</v>
+        <v>1.241643363150644</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.159079386410648</v>
+        <v>0.007572714824632243</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.241643363150644</v>
+        <v>3.148155784319496</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007572714824632243</v>
+        <v>0.953769653743472</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.148155784319496</v>
+        <v>1.819344197807471</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.953769653743472</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.819344197807471</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.21403140313017</v>
       </c>
     </row>
@@ -3131,72 +3095,66 @@
         <v>2.255590021251036e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.6564380710845367</v>
+        <v>1.050149734065307e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.1615590632709507</v>
+        <v>6.002522785530372e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.050149734065307e-06</v>
+        <v>0.02569830965093425</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.002522785530372e-06</v>
+        <v>0.2663456812504792</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02569830965093425</v>
+        <v>0.07156763109097923</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2663456812504792</v>
+        <v>1.650369993271862</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07156763109097923</v>
+        <v>1.598694918331036</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.574272614230822</v>
+        <v>4.033467372981874</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.598694918331036</v>
+        <v>1.896608921056962e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.033467372981874</v>
+        <v>26723256.5893679</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.896608921056962e-14</v>
+        <v>4.129418867573605e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>26723256.5893679</v>
+        <v>13.5442996171915</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.129418867573605e-06</v>
+        <v>0.0001336808676165431</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.5442996171915</v>
+        <v>8.245847435074658</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001336808676165431</v>
+        <v>1.569216173345868</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.245847435074658</v>
+        <v>0.009089496902362621</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.569216173345868</v>
+        <v>3.209083315407249</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009089496902362621</v>
+        <v>0.9549720854474727</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.209083315407249</v>
+        <v>1.855077962275018</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9549720854474727</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.855077962275018</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1904145056933516</v>
       </c>
     </row>
@@ -3211,72 +3169,66 @@
         <v>2.149426880316464e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4360347806095623</v>
+        <v>9.037141325350668e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8515740350881318</v>
+        <v>6.00688631897173e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.037141325350668e-07</v>
+        <v>0.01413328305092377</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.00688631897173e-06</v>
+        <v>0.2665078826165549</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01413328305092377</v>
+        <v>0.07119921981473953</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2665078826165549</v>
+        <v>1.705567459798246</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07119921981473953</v>
+        <v>1.555947333764446</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.641618922401588</v>
+        <v>4.091989618348764</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.555947333764446</v>
+        <v>1.84274753575505e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.091989618348764</v>
+        <v>26684603.77163646</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.84274753575505e-14</v>
+        <v>4.239804392757299e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26684603.77163646</v>
+        <v>13.12161696852161</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.239804392757299e-06</v>
+        <v>0.0001353260453502263</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>13.12161696852161</v>
+        <v>8.544701252720726</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001353260453502263</v>
+        <v>1.537140261544717</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.544701252720726</v>
+        <v>0.009880414329126867</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.537140261544717</v>
+        <v>3.224488960594866</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009880414329126867</v>
+        <v>0.9567615885003476</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.224488960594866</v>
+        <v>1.73785021121159</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9567615885003476</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.73785021121159</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1934356125966957</v>
       </c>
     </row>
@@ -3653,7 +3605,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.85470839652674</v>
+        <v>1.836079772487805</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.10303803832501</v>
@@ -3742,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.85042046251912</v>
+        <v>1.838675907739536</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.012391935604187</v>
@@ -3831,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.871080444508009</v>
+        <v>1.85594352708178</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.891421511773266</v>
@@ -3920,7 +3872,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.869902997336795</v>
+        <v>1.846694670974251</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.276705579135633</v>
@@ -4009,7 +3961,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.863117268442615</v>
+        <v>1.841159077645742</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.493652903393512</v>
@@ -4098,7 +4050,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.855028101433295</v>
+        <v>1.837111837397477</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.028067851564802</v>
@@ -4187,7 +4139,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.81331652771368</v>
+        <v>1.804571169934553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.973667289637805</v>
@@ -4276,7 +4228,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.824977800811196</v>
+        <v>1.815713597665379</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.186187547688296</v>
@@ -4365,7 +4317,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.825763818926387</v>
+        <v>1.811392144085287</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.406046282698519</v>
@@ -4454,7 +4406,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.836228572168952</v>
+        <v>1.822549628956476</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.311308303956672</v>
@@ -4543,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.832654903815158</v>
+        <v>1.82207325165044</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.248195889794502</v>
@@ -4632,7 +4584,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.818052121166464</v>
+        <v>1.81307675483056</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.527475256535466</v>
@@ -4721,7 +4673,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.822713555290037</v>
+        <v>1.82133921521467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.114302607220663</v>
@@ -4810,7 +4762,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.842482193942361</v>
+        <v>1.838352585433342</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.344733165064528</v>
@@ -4899,7 +4851,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.830386195716548</v>
+        <v>1.833258700623525</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.588218793611803</v>
@@ -4988,7 +4940,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.825746377846124</v>
+        <v>1.833595736749008</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.524005215824475</v>
@@ -5077,7 +5029,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.818943791309935</v>
+        <v>1.825191551339612</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.403681013532119</v>
@@ -5166,7 +5118,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.822430736774599</v>
+        <v>1.829287636991949</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.525806963484762</v>
@@ -5255,7 +5207,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.803601728860322</v>
+        <v>1.813679978125753</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.123067835677681</v>
@@ -5344,7 +5296,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.815060447237167</v>
+        <v>1.821389007833188</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.383765703125719</v>
@@ -5433,7 +5385,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.816336452002623</v>
+        <v>1.821217374379866</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.272181697848141</v>
@@ -5522,7 +5474,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.814763023224893</v>
+        <v>1.818798942880087</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.986697025202993</v>
@@ -5611,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.811682195630254</v>
+        <v>1.813602885385802</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.155379026088771</v>
@@ -5700,7 +5652,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.809115997239786</v>
+        <v>1.816040253841799</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.870231255850151</v>
@@ -5789,7 +5741,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.807246057666025</v>
+        <v>1.810728060056558</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.028050275985668</v>
@@ -5878,7 +5830,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.81404322355876</v>
+        <v>1.815239734955564</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.298486914023995</v>
@@ -5967,7 +5919,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.804632662807365</v>
+        <v>1.804788368307934</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.058813224668131</v>
@@ -6056,7 +6008,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.796402086660207</v>
+        <v>1.797378004845295</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.048217799947194</v>
@@ -6145,7 +6097,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.811011032452753</v>
+        <v>1.811999867811867</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.982074538138342</v>
@@ -6234,7 +6186,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.816872214610884</v>
+        <v>1.80904895158509</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.81929055987888</v>
@@ -6323,7 +6275,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.822097060160203</v>
+        <v>1.808628448508216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.879200449848578</v>
@@ -6412,7 +6364,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.825299895740516</v>
+        <v>1.809738478258364</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.05216664324107</v>
@@ -6501,7 +6453,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.822857438575503</v>
+        <v>1.805544233229197</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.016382137447977</v>
@@ -6590,7 +6542,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.843241901609551</v>
+        <v>1.827563067197439</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.740224710713225</v>
@@ -6679,7 +6631,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.862599337810603</v>
+        <v>1.845889739941816</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.874519725383771</v>
@@ -6768,7 +6720,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.864023857980147</v>
+        <v>1.850760181944088</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.024471074473611</v>
@@ -6857,7 +6809,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.898075987941437</v>
+        <v>1.876773387927847</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.599231764762519</v>
@@ -6946,7 +6898,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.902842727377392</v>
+        <v>1.882876527654612</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.408906607012259</v>
@@ -7035,7 +6987,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.882501270919444</v>
+        <v>1.873349780355502</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.358921824964054</v>
@@ -7124,7 +7076,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.886022065404416</v>
+        <v>1.879617391237242</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.533321903483876</v>
@@ -7213,7 +7165,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.87389905741771</v>
+        <v>1.87192112145163</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.576855169409792</v>
@@ -7302,7 +7254,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.888138110178773</v>
+        <v>1.884434837999563</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.851235182571337</v>
@@ -7391,7 +7343,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.876425102581294</v>
+        <v>1.874557745948532</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.45781495586196</v>
@@ -7480,7 +7432,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.880778832340766</v>
+        <v>1.877866415208975</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.798827698668246</v>
@@ -7569,7 +7521,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.879295345524636</v>
+        <v>1.879258136474357</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.278155955127954</v>
@@ -7658,7 +7610,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.87003168185037</v>
+        <v>1.874174627289538</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.905383772318972</v>
@@ -7747,7 +7699,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.868825758451619</v>
+        <v>1.878172412910719</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.473449192496841</v>
@@ -7836,7 +7788,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.872543208256894</v>
+        <v>1.877905068663599</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.665175918691898</v>
@@ -7925,7 +7877,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.874636410018446</v>
+        <v>1.875983576015751</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.507883080107779</v>
@@ -8014,7 +7966,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.862664206729642</v>
+        <v>1.866503707234446</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.087726028639842</v>
@@ -8103,7 +8055,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.863749507414768</v>
+        <v>1.868417429258048</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.72823636632515</v>
@@ -8389,7 +8341,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.621490691250044</v>
+        <v>1.629980199825256</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.514111777179807</v>
@@ -8478,7 +8430,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.63278138940195</v>
+        <v>1.641037614177574</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.511460007840622</v>
@@ -8567,7 +8519,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641481218832655</v>
+        <v>1.648792721130157</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.617877311355508</v>
@@ -8656,7 +8608,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.628285685707287</v>
+        <v>1.637992769772227</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.487884469160966</v>
@@ -8745,7 +8697,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634254703483938</v>
+        <v>1.640280893264141</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.743030853030244</v>
@@ -8834,7 +8786,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.594065529758886</v>
+        <v>1.607363127314027</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.772784724478504</v>
@@ -8923,7 +8875,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.58637523129379</v>
+        <v>1.599911005224429</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.990702786131849</v>
@@ -9012,7 +8964,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583000215498629</v>
+        <v>1.594677145284229</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.975818944146773</v>
@@ -9101,7 +9053,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.576727859773773</v>
+        <v>1.589162189883705</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.757070554376478</v>
@@ -9190,7 +9142,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588508857947488</v>
+        <v>1.602855889418179</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.864247274151309</v>
@@ -9279,7 +9231,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598792143706385</v>
+        <v>1.609425955012021</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.837760527252646</v>
@@ -9368,7 +9320,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613544987564225</v>
+        <v>1.626403253421512</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.634168758601766</v>
@@ -9457,7 +9409,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.615550921656805</v>
+        <v>1.633523123373501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.931774160924661</v>
@@ -9546,7 +9498,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613893583048283</v>
+        <v>1.630805404411267</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.872847436725376</v>
@@ -9635,7 +9587,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.606940094308086</v>
+        <v>1.619633558276024</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.632081322483251</v>
@@ -9724,7 +9676,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601663975201061</v>
+        <v>1.615757193781014</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.761971404556549</v>
@@ -9813,7 +9765,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.575201211641968</v>
+        <v>1.5879444740601</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.840573461589691</v>
@@ -9902,7 +9854,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549145967161759</v>
+        <v>1.561528728569538</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.829773080883</v>
@@ -9991,7 +9943,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.545196278303439</v>
+        <v>1.549543202337143</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.541112273800356</v>
@@ -10080,7 +10032,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54920366215277</v>
+        <v>1.553113716760576</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.637259942046353</v>
@@ -10169,7 +10121,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.556491885803363</v>
+        <v>1.55895023014045</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.709288250187956</v>
@@ -10258,7 +10210,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527421240214976</v>
+        <v>1.532057821398728</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.594870035381909</v>
@@ -10347,7 +10299,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.524840625509128</v>
+        <v>1.528783522524603</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.553902933236217</v>
@@ -10436,7 +10388,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.498897831593371</v>
+        <v>1.502486117536052</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.481125280071959</v>
@@ -10525,7 +10477,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491307278598087</v>
+        <v>1.494842582185593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.618876564467579</v>
@@ -10614,7 +10566,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.483755473273592</v>
+        <v>1.4870850112626</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.436009067206618</v>
@@ -10703,7 +10655,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.474962549210189</v>
+        <v>1.473932937356661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.477129830017466</v>
@@ -10792,7 +10744,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.4732826642731</v>
+        <v>1.470984178432522</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.54502421474895</v>
@@ -10881,7 +10833,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.480211815213375</v>
+        <v>1.48079186091417</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.463441044841371</v>
@@ -10970,7 +10922,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.481048272320661</v>
+        <v>1.48191726881563</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.50727984468869</v>
@@ -11059,7 +11011,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.479564228533564</v>
+        <v>1.478159555264215</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.591944667598381</v>
@@ -11148,7 +11100,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491466234266088</v>
+        <v>1.49113284867032</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.487671123994711</v>
@@ -11237,7 +11189,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.504160759687423</v>
+        <v>1.501925206737371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.568726868932572</v>
@@ -11326,7 +11278,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528703976383183</v>
+        <v>1.52970832686698</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.589904437601148</v>
@@ -11415,7 +11367,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.540531106757715</v>
+        <v>1.541126823106703</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.586743552589488</v>
@@ -11504,7 +11456,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.545381944105598</v>
+        <v>1.546049528444704</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.594574022595949</v>
@@ -11593,7 +11545,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.575546472247026</v>
+        <v>1.575913564892673</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.707178722404922</v>
@@ -11682,7 +11634,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.58451544256961</v>
+        <v>1.584450199436769</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.747303258797328</v>
@@ -11771,7 +11723,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619556877155722</v>
+        <v>1.617105574600346</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.046834061975745</v>
@@ -11860,7 +11812,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627077488130836</v>
+        <v>1.619439568591073</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.137805365252509</v>
@@ -11949,7 +11901,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.646213693218495</v>
+        <v>1.635907823032066</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.23311539683317</v>
@@ -12038,7 +11990,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.652945083059708</v>
+        <v>1.646450660909851</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.283308674095236</v>
@@ -12127,7 +12079,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.656121747695724</v>
+        <v>1.643043476959551</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.404109608911364</v>
@@ -12216,7 +12168,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.655563498058924</v>
+        <v>1.635159152611554</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.901562708364307</v>
@@ -12305,7 +12257,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.662740779604362</v>
+        <v>1.645721363657174</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.439579457156854</v>
@@ -12394,7 +12346,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.67468943238448</v>
+        <v>1.657182704668289</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.857571079105143</v>
@@ -12483,7 +12435,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.686853525507818</v>
+        <v>1.673018017219438</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.497620120520761</v>
@@ -12572,7 +12524,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.688878819621547</v>
+        <v>1.678865758122901</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.680725619604981</v>
@@ -12661,7 +12613,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.674972044212156</v>
+        <v>1.666588395010073</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.344025993008024</v>
@@ -12750,7 +12702,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671592394759893</v>
+        <v>1.665721566964549</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.251131680660725</v>
@@ -12839,7 +12791,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.685379465296531</v>
+        <v>1.677259483925499</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.844924712723711</v>
@@ -13125,7 +13077,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.850552039488825</v>
+        <v>1.817161230774677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.04755992634397</v>
@@ -13214,7 +13166,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.846492578891988</v>
+        <v>1.810434899741075</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.175797240566586</v>
@@ -13303,7 +13255,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.845507826601423</v>
+        <v>1.812042054782919</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.505351203695211</v>
@@ -13392,7 +13344,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.843947571913513</v>
+        <v>1.804912284635433</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.29274394800215</v>
@@ -13481,7 +13433,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.832993603066331</v>
+        <v>1.796200319901716</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.785413727238708</v>
@@ -13570,7 +13522,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.824397690590896</v>
+        <v>1.781532623929226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.864958940692468</v>
@@ -13659,7 +13611,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.806639717286644</v>
+        <v>1.760715384937737</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.531485983490924</v>
@@ -13748,7 +13700,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.811233635991723</v>
+        <v>1.769498418415098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.435554284015102</v>
@@ -13837,7 +13789,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.815532962685863</v>
+        <v>1.770938917526734</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.587387176566658</v>
@@ -13926,7 +13878,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.817406966723387</v>
+        <v>1.773535912518181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.306968766051408</v>
@@ -14015,7 +13967,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.816644188015678</v>
+        <v>1.778007924072476</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.333835395693889</v>
@@ -14104,7 +14056,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.82795813157752</v>
+        <v>1.788593779067475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.337192982020561</v>
@@ -14193,7 +14145,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.829682793979987</v>
+        <v>1.796891617664766</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.693606053506539</v>
@@ -14282,7 +14234,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.826508709017865</v>
+        <v>1.796491206559593</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.466725479475666</v>
@@ -14371,7 +14323,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.822831943452268</v>
+        <v>1.795136707774166</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.311058466406815</v>
@@ -14460,7 +14412,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.819289527361045</v>
+        <v>1.791773764349183</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.506919196282702</v>
@@ -14549,7 +14501,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.804613835052488</v>
+        <v>1.779170966731394</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.346883365959358</v>
@@ -14638,7 +14590,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.799430174725193</v>
+        <v>1.775744212564927</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.119192239485003</v>
@@ -14727,7 +14679,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.789402252131872</v>
+        <v>1.76299511236111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.330837098151477</v>
@@ -14816,7 +14768,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.80294180521718</v>
+        <v>1.776413265783246</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.290512741001188</v>
@@ -14905,7 +14857,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.802483776208696</v>
+        <v>1.777473911241658</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.501786622159709</v>
@@ -14994,7 +14946,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.797731642702317</v>
+        <v>1.773698538650909</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.430883742732933</v>
@@ -15083,7 +15035,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784107096578691</v>
+        <v>1.762855944600187</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.567865166268742</v>
@@ -15172,7 +15124,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.758039960082131</v>
+        <v>1.743075939037148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.288132555239647</v>
@@ -15261,7 +15213,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.749456504312483</v>
+        <v>1.732526836511855</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.579449423431483</v>
@@ -15350,7 +15302,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746740189402374</v>
+        <v>1.728838893537719</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.868554677082936</v>
@@ -15439,7 +15391,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.735290254113561</v>
+        <v>1.716900766133315</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.669922345989475</v>
@@ -15528,7 +15480,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.729134595457628</v>
+        <v>1.711167049611054</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.720656343899333</v>
@@ -15617,7 +15569,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.743728269536213</v>
+        <v>1.725694628018352</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.490342192981434</v>
@@ -15706,7 +15658,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.751212458510345</v>
+        <v>1.732282359852868</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.505599384855204</v>
@@ -15795,7 +15747,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.74685122075712</v>
+        <v>1.722216082923029</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.560550993172741</v>
@@ -15884,7 +15836,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.763501855789444</v>
+        <v>1.736061522739395</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.261301573123905</v>
@@ -15973,7 +15925,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.770917514993996</v>
+        <v>1.744507266451619</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.572515586146455</v>
@@ -16062,7 +16014,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.776711357094501</v>
+        <v>1.75316398762972</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.528477692891531</v>
@@ -16151,7 +16103,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.766531396037504</v>
+        <v>1.744877119644888</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.43880114895561</v>
@@ -16240,7 +16192,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.7647923408525</v>
+        <v>1.748904675049197</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.873915768718604</v>
@@ -16329,7 +16281,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.783337737057128</v>
+        <v>1.763973445793426</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.48320604655975</v>
@@ -16418,7 +16370,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.787383572788293</v>
+        <v>1.76720420603349</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.545402041371635</v>
@@ -16507,7 +16459,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.809003104752197</v>
+        <v>1.785383747042004</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.934679447298353</v>
@@ -16596,7 +16548,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.816971280500272</v>
+        <v>1.798199620554504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.333980037358862</v>
@@ -16685,7 +16637,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.821131428680145</v>
+        <v>1.798071939193637</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.48978262084464</v>
@@ -16774,7 +16726,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819231824218603</v>
+        <v>1.802685292607674</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.902062666022229</v>
@@ -16863,7 +16815,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.820999739750123</v>
+        <v>1.800994941175112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.29247081796244</v>
@@ -16952,7 +16904,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.823694549798425</v>
+        <v>1.802657425145064</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.175397540927874</v>
@@ -17041,7 +16993,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.821414974912402</v>
+        <v>1.804957004750954</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.742840009630887</v>
@@ -17130,7 +17082,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.819526298013183</v>
+        <v>1.806571953867884</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.331456328550593</v>
@@ -17219,7 +17171,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.822340886888797</v>
+        <v>1.811382769954778</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.551451922092856</v>
@@ -17308,7 +17260,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.822636981814881</v>
+        <v>1.81221113187538</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.076969722535297</v>
@@ -17397,7 +17349,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.827382146341088</v>
+        <v>1.813183483991311</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.496695900121466</v>
@@ -17486,7 +17438,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.832920453485042</v>
+        <v>1.815201328206244</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.83734895536859</v>
@@ -17575,7 +17527,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.836750849779355</v>
+        <v>1.820158127335638</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.894363638395827</v>
@@ -17861,7 +17813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.875660359725671</v>
+        <v>1.848698406981715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.316517425858911</v>
@@ -17950,7 +17902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.866941592800851</v>
+        <v>1.835774268784432</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.269876789200947</v>
@@ -18039,7 +17991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.872116674737597</v>
+        <v>1.844602521095004</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.051960674245244</v>
@@ -18128,7 +18080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.863821919318804</v>
+        <v>1.831268165028731</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.763983421012619</v>
@@ -18217,7 +18169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.86575531012932</v>
+        <v>1.828868635678657</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.419250987220203</v>
@@ -18306,7 +18258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.850269020688641</v>
+        <v>1.807906620390844</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.920988913820336</v>
@@ -18395,7 +18347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.82680319991697</v>
+        <v>1.781809359947401</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.047221688503934</v>
@@ -18484,7 +18436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.831157213884498</v>
+        <v>1.789617004826022</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.363622445418256</v>
@@ -18573,7 +18525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.832562008993224</v>
+        <v>1.788216236210149</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.572848131303397</v>
@@ -18662,7 +18614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.836755994002333</v>
+        <v>1.791640977373585</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.715580508582437</v>
@@ -18751,7 +18703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.837621828955668</v>
+        <v>1.790761057908066</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.52956189292401</v>
@@ -18840,7 +18792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.831088542402624</v>
+        <v>1.78878316433987</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.23570995472517</v>
@@ -18929,7 +18881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.832276179651415</v>
+        <v>1.78910554743796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.465621410376817</v>
@@ -19018,7 +18970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.84195602564249</v>
+        <v>1.797854589006799</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.707586435524465</v>
@@ -19107,7 +19059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.827576492913075</v>
+        <v>1.783238186671104</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.185679879085037</v>
@@ -19196,7 +19148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.831016200732446</v>
+        <v>1.789114581414947</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.747573177059916</v>
@@ -19285,7 +19237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.818417884101512</v>
+        <v>1.778879984479266</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.274833207624325</v>
@@ -19374,7 +19326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.810138451302433</v>
+        <v>1.771237553612649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.448033516347982</v>
@@ -19463,7 +19415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.794264812504635</v>
+        <v>1.756715045949677</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.535166786581178</v>
@@ -19552,7 +19504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798463798531928</v>
+        <v>1.764418496488018</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.359528714316387</v>
@@ -19641,7 +19593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.796989250621801</v>
+        <v>1.765535513377201</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.530581997819709</v>
@@ -19730,7 +19682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.791207893860297</v>
+        <v>1.760607324505398</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.393414673002944</v>
@@ -19819,7 +19771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784757865821206</v>
+        <v>1.751908275490309</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.429602452537045</v>
@@ -19908,7 +19860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.781531795335198</v>
+        <v>1.752952053441309</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.433126020869201</v>
@@ -19997,7 +19949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.778146008502047</v>
+        <v>1.751228349663667</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.222786104326239</v>
@@ -20086,7 +20038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.781503191914194</v>
+        <v>1.755844131345471</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.904357623652946</v>
@@ -20175,7 +20127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.773713218305689</v>
+        <v>1.742458862165837</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.129602192515741</v>
@@ -20264,7 +20216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.768082144061989</v>
+        <v>1.741245338093561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.246704549768932</v>
@@ -20353,7 +20305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.772081273996577</v>
+        <v>1.7428095580996</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.986393753135444</v>
@@ -20442,7 +20394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773870790978501</v>
+        <v>1.746938411497516</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.049618453511378</v>
@@ -20531,7 +20483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770042118327988</v>
+        <v>1.739593054166296</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.05637128965671</v>
@@ -20620,7 +20572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.776272035610717</v>
+        <v>1.743086717835923</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.89917971039544</v>
@@ -20709,7 +20661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.77530369853129</v>
+        <v>1.743293499443376</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.14477993257007</v>
@@ -20798,7 +20750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.793681235697745</v>
+        <v>1.758566651794943</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.926816381039852</v>
@@ -20887,7 +20839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.797689921012432</v>
+        <v>1.767799972257774</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.163805671959285</v>
@@ -20976,7 +20928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.803517064796277</v>
+        <v>1.774212695557333</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.173898432976082</v>
@@ -21065,7 +21017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.81865423466911</v>
+        <v>1.784585661281372</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.656370968570308</v>
@@ -21154,7 +21106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.82374687079778</v>
+        <v>1.789241561726461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.531947068913248</v>
@@ -21243,7 +21195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.809809388146875</v>
+        <v>1.778016478517769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.280510399256663</v>
@@ -21332,7 +21284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.812560141053475</v>
+        <v>1.780522312869507</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.399449677232321</v>
@@ -21421,7 +21373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.809882565419943</v>
+        <v>1.779104250862144</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.430981233322912</v>
@@ -21510,7 +21462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819798702615667</v>
+        <v>1.795362665423374</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.107937683962994</v>
@@ -21599,7 +21551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.815163361789122</v>
+        <v>1.786498342245576</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.215854028678842</v>
@@ -21688,7 +21640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.822005491231336</v>
+        <v>1.795018382118309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.373429789686345</v>
@@ -21777,7 +21729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.822172184666761</v>
+        <v>1.797357545446176</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.924234545481989</v>
@@ -21866,7 +21818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.822490532042509</v>
+        <v>1.795140159423174</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.562018029193124</v>
@@ -21955,7 +21907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.828192564816409</v>
+        <v>1.800090154256101</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.627158711311023</v>
@@ -22044,7 +21996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.833447453094359</v>
+        <v>1.802868358818192</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.364478952642041</v>
@@ -22133,7 +22085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.83634318249545</v>
+        <v>1.804355057130548</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.80346726537241</v>
@@ -22222,7 +22174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.830411264279022</v>
+        <v>1.797151784627145</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.670391091669841</v>
@@ -22311,7 +22263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.827040080772368</v>
+        <v>1.792077368463447</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.30438888348392</v>
@@ -22597,7 +22549,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559692752958786</v>
+        <v>1.571426006632541</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.827573830230229</v>
@@ -22686,7 +22638,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56094324694518</v>
+        <v>1.573794538850573</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.824617615658617</v>
@@ -22775,7 +22727,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585261008986826</v>
+        <v>1.596113525608534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.87771311497135</v>
@@ -22864,7 +22816,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.584312599594708</v>
+        <v>1.589244111102825</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.869472736685892</v>
@@ -22953,7 +22905,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.683923549445096</v>
+        <v>1.682517801718465</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.864710119115287</v>
@@ -23042,7 +22994,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.679898780713786</v>
+        <v>1.674924096751407</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.826439265985176</v>
@@ -23131,7 +23083,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.662657453440841</v>
+        <v>1.656584499519355</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.851480820137871</v>
@@ -23220,7 +23172,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662490381836389</v>
+        <v>1.655487141604799</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.812177928965699</v>
@@ -23309,7 +23261,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.667348581793878</v>
+        <v>1.656536766100963</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.783704425687043</v>
@@ -23398,7 +23350,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672554928932563</v>
+        <v>1.659687847760504</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.815738344943661</v>
@@ -23487,7 +23439,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678733065432334</v>
+        <v>1.667798591247548</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.796377028188527</v>
@@ -23576,7 +23528,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.721349348342516</v>
+        <v>1.696084499699983</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.798252153060389</v>
@@ -23665,7 +23617,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.673504897617961</v>
+        <v>1.656167394924001</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.804952077895186</v>
@@ -23754,7 +23706,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.690406322166273</v>
+        <v>1.670584925970728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.77942696094232</v>
@@ -23843,7 +23795,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681865261996207</v>
+        <v>1.663933064482383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.770824697780269</v>
@@ -23932,7 +23884,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653120351751452</v>
+        <v>1.637302347101483</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.776832510458515</v>
@@ -24021,7 +23973,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.591742848370904</v>
+        <v>1.576304634674799</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.806104751637219</v>
@@ -24110,7 +24062,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.545270383122475</v>
+        <v>1.533860416448708</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.769381206817988</v>
@@ -24199,7 +24151,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.538568344221906</v>
+        <v>1.525582142750337</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.800324693312766</v>
@@ -24288,7 +24240,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.539356782561598</v>
+        <v>1.523528526118371</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.777354025190233</v>
@@ -24377,7 +24329,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530164866995208</v>
+        <v>1.518661528827402</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.77772059011215</v>
@@ -24466,7 +24418,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480243075538222</v>
+        <v>1.461803444330061</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.832130764371066</v>
@@ -24555,7 +24507,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.446307644088055</v>
+        <v>1.432419747071898</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.820708552475576</v>
@@ -24644,7 +24596,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.444910616681219</v>
+        <v>1.430541856072161</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.829471114613988</v>
@@ -24733,7 +24685,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.442085082180597</v>
+        <v>1.428810897129145</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.820269841857798</v>
@@ -24822,7 +24774,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438016668715883</v>
+        <v>1.424449838666703</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.854464884617064</v>
@@ -24911,7 +24863,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.416459817764491</v>
+        <v>1.408581866211638</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.773441043828714</v>
@@ -25000,7 +24952,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.420675798649694</v>
+        <v>1.414884732785375</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.800191601914167</v>
@@ -25089,7 +25041,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.424020112454903</v>
+        <v>1.418875501567805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.783400892658704</v>
@@ -25178,7 +25130,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.424584825792802</v>
+        <v>1.418070806226188</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.796126348325399</v>
@@ -25267,7 +25219,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.441695318206133</v>
+        <v>1.434630356287755</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.79843571205788</v>
@@ -25356,7 +25308,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486824609632349</v>
+        <v>1.487438356183918</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.769096704743741</v>
@@ -25445,7 +25397,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499837624676153</v>
+        <v>1.502190693833684</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.772732115114328</v>
@@ -25534,7 +25486,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.510259285567273</v>
+        <v>1.51610019358403</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.792569414298949</v>
@@ -25623,7 +25575,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.511357368631423</v>
+        <v>1.517632774793353</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.783403159916741</v>
@@ -25712,7 +25664,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.511123923857908</v>
+        <v>1.515388794744255</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.795874447875114</v>
@@ -25801,7 +25753,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598583280245178</v>
+        <v>1.612039737301106</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.074011100802186</v>
@@ -25890,7 +25842,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628599925819748</v>
+        <v>1.643683126650728</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.718405881553208</v>
@@ -25979,7 +25931,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622837111822205</v>
+        <v>1.641689926769764</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.946456570719789</v>
@@ -26068,7 +26020,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629261198126825</v>
+        <v>1.645837244735894</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.833814678391819</v>
@@ -26157,7 +26109,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633415200466638</v>
+        <v>1.651287824794916</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.864446919434001</v>
@@ -26246,7 +26198,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646607258038132</v>
+        <v>1.664514402135997</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.939956499805651</v>
@@ -26335,7 +26287,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635116446021176</v>
+        <v>1.65009122624736</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.900994136603038</v>
@@ -26424,7 +26376,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634766461513284</v>
+        <v>1.651264597627728</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.784995429974094</v>
@@ -26513,7 +26465,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.626267697098112</v>
+        <v>1.648744728679665</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.773043032927312</v>
@@ -26602,7 +26554,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618254804813055</v>
+        <v>1.63979353437992</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.742404366293858</v>
@@ -26691,7 +26643,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615392563159611</v>
+        <v>1.638091394863366</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.923915420027303</v>
@@ -26780,7 +26732,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622738254298567</v>
+        <v>1.647677014955491</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.963646658461646</v>
@@ -26869,7 +26821,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611551022801171</v>
+        <v>1.633181699581012</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.007224987110276</v>
@@ -26958,7 +26910,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.625851905998614</v>
+        <v>1.642291501992214</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.999351758064436</v>
@@ -27047,7 +26999,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.659210449398254</v>
+        <v>1.672329804952862</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.000509133614007</v>
@@ -27333,7 +27285,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.799912557955726</v>
+        <v>1.801776571581275</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.828261645075657</v>
@@ -27422,7 +27374,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.781757837015679</v>
+        <v>1.792424271711238</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.802420967205732</v>
@@ -27511,7 +27463,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.80804549172638</v>
+        <v>1.815962083785752</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.659127597771481</v>
@@ -27600,7 +27552,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.800083891288855</v>
+        <v>1.806436587890924</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.644293799809969</v>
@@ -27689,7 +27641,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.795137499123334</v>
+        <v>1.796060157906302</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.83134575362802</v>
@@ -27778,7 +27730,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.779707881792731</v>
+        <v>1.781297044731848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.833583131446668</v>
@@ -27867,7 +27819,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.73395478749107</v>
+        <v>1.738430418591498</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.738486107595992</v>
@@ -27956,7 +27908,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75246844133248</v>
+        <v>1.753014820235667</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.619341083967059</v>
@@ -28045,7 +27997,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.750168096051609</v>
+        <v>1.750731934051811</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.795803223586684</v>
@@ -28134,7 +28086,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.75397067632095</v>
+        <v>1.756412619713833</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.623685100840772</v>
@@ -28223,7 +28175,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.743567348702632</v>
+        <v>1.747325572144163</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.769359528435548</v>
@@ -28312,7 +28264,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722978019061023</v>
+        <v>1.733272687856307</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.792667378675436</v>
@@ -28401,7 +28353,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.729526255982878</v>
+        <v>1.7441429806015</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.662782445095076</v>
@@ -28490,7 +28442,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754125596302024</v>
+        <v>1.76765863105751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.764277317715575</v>
@@ -28579,7 +28531,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.731035538951432</v>
+        <v>1.746133597412677</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.742351542905805</v>
@@ -28668,7 +28620,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.729002811312029</v>
+        <v>1.742596271881554</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.943686639070944</v>
@@ -28757,7 +28709,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.72767904507235</v>
+        <v>1.738953250586912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.75152131889234</v>
@@ -28846,7 +28798,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.722304604253365</v>
+        <v>1.733088838337066</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.694428860728328</v>
@@ -28935,7 +28887,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.698548209171119</v>
+        <v>1.70698551530368</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.786733575162063</v>
@@ -29024,7 +28976,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705177232004758</v>
+        <v>1.71964198076655</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.903216387191998</v>
@@ -29113,7 +29065,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.707031897560007</v>
+        <v>1.718926107004344</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.54113348913461</v>
@@ -29202,7 +29154,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.670544454264448</v>
+        <v>1.685451314408311</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.541333264994423</v>
@@ -29291,7 +29243,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663141456491049</v>
+        <v>1.678678196185432</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.455621988181655</v>
@@ -29380,7 +29332,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663927495906384</v>
+        <v>1.68141232962493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.411988886034131</v>
@@ -29469,7 +29421,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662338350508978</v>
+        <v>1.67896655629239</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.424297987544403</v>
@@ -29558,7 +29510,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.669723216746142</v>
+        <v>1.686971731906719</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.214671660835126</v>
@@ -29647,7 +29599,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.65958201991762</v>
+        <v>1.671520616877206</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.430500153243156</v>
@@ -29736,7 +29688,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656601328637355</v>
+        <v>1.668882015174747</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.342233603494122</v>
@@ -29825,7 +29777,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664946614663128</v>
+        <v>1.672108953684974</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.143237006717858</v>
@@ -29914,7 +29866,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668402221765</v>
+        <v>1.670419864686702</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.300916855467217</v>
@@ -30003,7 +29955,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.674624768551036</v>
+        <v>1.672877021506674</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.416221935553331</v>
@@ -30092,7 +30044,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670399247324287</v>
+        <v>1.674035153612778</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.290118642604555</v>
@@ -30181,7 +30133,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670529299947934</v>
+        <v>1.674123807985162</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.309816200687389</v>
@@ -30270,7 +30222,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700832618065061</v>
+        <v>1.699687586239532</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.421368682753891</v>
@@ -30359,7 +30311,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722616420783785</v>
+        <v>1.719743196613726</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.315691712905738</v>
@@ -30448,7 +30400,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72666590071659</v>
+        <v>1.723834572331023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.35541557889872</v>
@@ -30537,7 +30489,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.804288809568802</v>
+        <v>1.78681613322498</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.642835356789846</v>
@@ -30626,7 +30578,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.810141389344997</v>
+        <v>1.794629710771544</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.876962187395829</v>
@@ -30715,7 +30667,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.778112344233592</v>
+        <v>1.774320552106971</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.887706175098308</v>
@@ -30804,7 +30756,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.777677785010624</v>
+        <v>1.776056591787538</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.923357330534353</v>
@@ -30893,7 +30845,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.760410735792137</v>
+        <v>1.761591466767706</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.935321626344707</v>
@@ -30982,7 +30934,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.782277935941981</v>
+        <v>1.786223076597908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.910172838228144</v>
@@ -31071,7 +31023,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754355046279956</v>
+        <v>1.760859832215168</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.871885397996238</v>
@@ -31160,7 +31112,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.763507007862388</v>
+        <v>1.771702838508624</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.768846647360153</v>
@@ -31249,7 +31201,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.768169355279128</v>
+        <v>1.776495974859904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.947753662056926</v>
@@ -31338,7 +31290,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.758079318545617</v>
+        <v>1.761611923436295</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.867058676387209</v>
@@ -31427,7 +31379,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759126024949722</v>
+        <v>1.765044958324737</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.031967967568126</v>
@@ -31516,7 +31468,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.759736128150371</v>
+        <v>1.766766138420035</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89752967670097</v>
@@ -31605,7 +31557,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.76021998363114</v>
+        <v>1.762636102329754</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.8433279855246</v>
@@ -31694,7 +31646,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.741580134425636</v>
+        <v>1.747175042877656</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.970235998474263</v>
@@ -31783,7 +31735,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.735799647196609</v>
+        <v>1.741335895937181</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.08529417723508</v>
